--- a/output/MILES_30773649000106.xlsx
+++ b/output/MILES_30773649000106.xlsx
@@ -713,10 +713,10 @@
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.32776246</v>
+        <v>0.3260038599999999</v>
       </c>
       <c r="C30">
-        <v>0.03045070245151593</v>
+        <v>0.0290858870873798</v>
       </c>
     </row>
   </sheetData>

--- a/output/MILES_30773649000106.xlsx
+++ b/output/MILES_30773649000106.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MILES ACER LONG BIAS ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,337 +383,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43312</v>
       </c>
       <c r="B2">
-        <v>-0.01176759000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43343</v>
       </c>
       <c r="B3">
-        <v>-0.03462401999999998</v>
-      </c>
-      <c r="C3">
         <v>-0.02312859785685428</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43373</v>
       </c>
       <c r="B4">
-        <v>-0.04796131000000003</v>
-      </c>
-      <c r="C4">
         <v>-0.01381564310311523</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43404</v>
       </c>
       <c r="B5">
-        <v>0.04536304000000002</v>
-      </c>
-      <c r="C5">
         <v>0.09802579556929558</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43434</v>
       </c>
       <c r="B6">
-        <v>0.06161241999999989</v>
-      </c>
-      <c r="C6">
         <v>0.0155442457579138</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43465</v>
       </c>
       <c r="B7">
-        <v>0.09261761999999996</v>
-      </c>
-      <c r="C7">
         <v>0.02920576230636041</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43496</v>
       </c>
       <c r="B8">
-        <v>0.1694541599999999</v>
-      </c>
-      <c r="C8">
         <v>0.07032335795573208</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43524</v>
       </c>
       <c r="B9">
-        <v>0.1334369099999999</v>
-      </c>
-      <c r="C9">
         <v>-0.03079834270716519</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43555</v>
       </c>
       <c r="B10">
-        <v>0.1406506000000001</v>
-      </c>
-      <c r="C10">
         <v>0.006364438934673533</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43585</v>
       </c>
       <c r="B11">
-        <v>0.17725327</v>
-      </c>
-      <c r="C11">
         <v>0.03208929184800313</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43616</v>
       </c>
       <c r="B12">
-        <v>0.1749378100000001</v>
-      </c>
-      <c r="C12">
         <v>-0.001966832506653304</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43646</v>
       </c>
       <c r="B13">
-        <v>0.20883973</v>
-      </c>
-      <c r="C13">
         <v>0.02885422505894164</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43677</v>
       </c>
       <c r="B14">
-        <v>0.2567864799999999</v>
-      </c>
-      <c r="C14">
         <v>0.03966344653480247</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43708</v>
       </c>
       <c r="B15">
-        <v>0.27170151</v>
-      </c>
-      <c r="C15">
         <v>0.01186759265583448</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43738</v>
       </c>
       <c r="B16">
-        <v>0.26580084</v>
-      </c>
-      <c r="C16">
         <v>-0.004639980336266114</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43769</v>
       </c>
       <c r="B17">
-        <v>0.2704698699999999</v>
-      </c>
-      <c r="C17">
         <v>0.003688597647004022</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43799</v>
       </c>
       <c r="B18">
-        <v>0.2816239700000001</v>
-      </c>
-      <c r="C18">
         <v>0.008779507695054756</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43830</v>
       </c>
       <c r="B19">
-        <v>0.3668262200000001</v>
-      </c>
-      <c r="C19">
         <v>0.06647991298102829</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43861</v>
       </c>
       <c r="B20">
-        <v>0.38896931</v>
-      </c>
-      <c r="C20">
         <v>0.01620036964172367</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43890</v>
       </c>
       <c r="B21">
-        <v>0.29709221</v>
-      </c>
-      <c r="C21">
         <v>-0.06614768183754904</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43921</v>
       </c>
       <c r="B22">
-        <v>-0.002317030000000053</v>
-      </c>
-      <c r="C22">
         <v>-0.2308311141580289</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43951</v>
       </c>
       <c r="B23">
-        <v>0.09187012999999999</v>
-      </c>
-      <c r="C23">
         <v>0.09440590130550186</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43982</v>
       </c>
       <c r="B24">
-        <v>0.24347311</v>
-      </c>
-      <c r="C24">
         <v>0.1388470806505167</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44012</v>
       </c>
       <c r="B25">
-        <v>0.3149181299999999</v>
-      </c>
-      <c r="C25">
         <v>0.0574560233152126</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44043</v>
       </c>
       <c r="B26">
-        <v>0.4257347899999999</v>
-      </c>
-      <c r="C26">
         <v>0.08427647126593341</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44074</v>
       </c>
       <c r="B27">
-        <v>0.3794827000000001</v>
-      </c>
-      <c r="C27">
         <v>-0.03244087913433036</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
       <c r="B28">
-        <v>0.30641341</v>
-      </c>
-      <c r="C28">
         <v>-0.05296861642411321</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44135</v>
       </c>
       <c r="B29">
-        <v>0.28852594</v>
-      </c>
-      <c r="C29">
         <v>-0.01369204408273794</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.3260038599999999</v>
-      </c>
-      <c r="C30">
-        <v>0.0290858870873798</v>
+        <v>0.01525586671541901</v>
       </c>
     </row>
   </sheetData>
